--- a/CaseAndFatalityDemographicsData/2021-03-12.xlsx
+++ b/CaseAndFatalityDemographicsData/2021-03-12.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kdavis197\Desktop\Leadership Reports\Reports to Send 3.4.21\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ehuebner963\Desktop\WIRID Box\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A1DD810B-8DB0-4356-8F5F-7FDB603263F8}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{87D74E45-E4A5-4A71-A7AA-B1960A374A6C}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" tabRatio="806" xr2:uid="{A6E7ED99-6879-4496-BF23-313330724014}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" tabRatio="806" activeTab="5" xr2:uid="{A6E7ED99-6879-4496-BF23-313330724014}"/>
   </bookViews>
   <sheets>
     <sheet name="Cases by Age Group" sheetId="3" r:id="rId1"/>
@@ -548,8 +548,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBBE98AD-F551-4399-A212-2161860B6EB7}">
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -573,11 +573,11 @@
         <v>1</v>
       </c>
       <c r="B2" s="4">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C2" s="12">
         <f>B2/$B$15</f>
-        <v>3.5247524752475248E-3</v>
+        <v>3.5273368606701938E-3</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -585,11 +585,11 @@
         <v>3</v>
       </c>
       <c r="B3" s="4">
-        <v>1269</v>
+        <v>1273</v>
       </c>
       <c r="C3" s="12">
         <f t="shared" ref="C3:C15" si="0">B3/$B$15</f>
-        <v>1.6752475247524753E-2</v>
+        <v>1.6754850088183421E-2</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -597,11 +597,11 @@
         <v>4</v>
       </c>
       <c r="B4" s="4">
-        <v>3446</v>
+        <v>3465</v>
       </c>
       <c r="C4" s="12">
         <f t="shared" si="0"/>
-        <v>4.5491749174917495E-2</v>
+        <v>4.5605306799336651E-2</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -609,11 +609,11 @@
         <v>5</v>
       </c>
       <c r="B5" s="4">
-        <v>15119</v>
+        <v>15149</v>
       </c>
       <c r="C5" s="12">
         <f t="shared" si="0"/>
-        <v>0.19959075907590759</v>
+        <v>0.1993866645607939</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -621,11 +621,11 @@
         <v>6</v>
       </c>
       <c r="B6" s="4">
-        <v>16730</v>
+        <v>16759</v>
       </c>
       <c r="C6" s="12">
         <f t="shared" si="0"/>
-        <v>0.22085808580858085</v>
+        <v>0.22057700913422307</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -633,11 +633,11 @@
         <v>7</v>
       </c>
       <c r="B7" s="4">
-        <v>14622</v>
+        <v>14665</v>
       </c>
       <c r="C7" s="12">
         <f t="shared" si="0"/>
-        <v>0.19302970297029703</v>
+        <v>0.19301639948406119</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -645,11 +645,11 @@
         <v>8</v>
       </c>
       <c r="B8" s="4">
-        <v>12266</v>
+        <v>12304</v>
       </c>
       <c r="C8" s="12">
         <f t="shared" si="0"/>
-        <v>0.16192739273927392</v>
+        <v>0.16194161467793308</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -657,11 +657,11 @@
         <v>9</v>
       </c>
       <c r="B9" s="4">
-        <v>4407</v>
+        <v>4430</v>
       </c>
       <c r="C9" s="12">
         <f t="shared" si="0"/>
-        <v>5.8178217821782181E-2</v>
+        <v>5.8306351838690144E-2</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -669,11 +669,11 @@
         <v>10</v>
       </c>
       <c r="B10" s="4">
-        <v>2963</v>
+        <v>2972</v>
       </c>
       <c r="C10" s="12">
         <f t="shared" si="0"/>
-        <v>3.9115511551155113E-2</v>
+        <v>3.9116586380267972E-2</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -681,11 +681,11 @@
         <v>11</v>
       </c>
       <c r="B11" s="4">
-        <v>1747</v>
+        <v>1757</v>
       </c>
       <c r="C11" s="12">
         <f t="shared" si="0"/>
-        <v>2.3062706270627061E-2</v>
+        <v>2.3125115164916159E-2</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -693,11 +693,11 @@
         <v>12</v>
       </c>
       <c r="B12" s="4">
-        <v>1139</v>
+        <v>1147</v>
       </c>
       <c r="C12" s="12">
         <f t="shared" si="0"/>
-        <v>1.5036303630363037E-2</v>
+        <v>1.509647529548027E-2</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -705,11 +705,11 @@
         <v>13</v>
       </c>
       <c r="B13" s="4">
-        <v>1762</v>
+        <v>1776</v>
       </c>
       <c r="C13" s="12">
         <f t="shared" si="0"/>
-        <v>2.3260726072607259E-2</v>
+        <v>2.3375187554292031E-2</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
@@ -721,7 +721,7 @@
       </c>
       <c r="C14" s="12">
         <f t="shared" si="0"/>
-        <v>1.7161716171617162E-4</v>
+        <v>1.7110216115191239E-4</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
@@ -729,8 +729,7 @@
         <v>15</v>
       </c>
       <c r="B15" s="1">
-        <f>SUM(B2:B14)</f>
-        <v>75750</v>
+        <v>75978</v>
       </c>
       <c r="C15" s="11">
         <f t="shared" si="0"/>
@@ -747,7 +746,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="B2" sqref="B2:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -768,11 +767,11 @@
         <v>16</v>
       </c>
       <c r="B2" s="4">
-        <v>25349</v>
+        <v>25441</v>
       </c>
       <c r="C2" s="12">
         <f>B2/$B$5</f>
-        <v>0.33464026402640262</v>
+        <v>0.33484692937429256</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -780,11 +779,11 @@
         <v>17</v>
       </c>
       <c r="B3" s="4">
-        <v>49491</v>
+        <v>49630</v>
       </c>
       <c r="C3" s="12">
         <f t="shared" ref="C3:C5" si="0">B3/$B$5</f>
-        <v>0.65334653465346537</v>
+        <v>0.65321540445918558</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -792,11 +791,11 @@
         <v>18</v>
       </c>
       <c r="B4" s="4">
-        <v>910</v>
+        <v>907</v>
       </c>
       <c r="C4" s="12">
         <f t="shared" si="0"/>
-        <v>1.2013201320132014E-2</v>
+        <v>1.1937666166521888E-2</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -804,8 +803,7 @@
         <v>15</v>
       </c>
       <c r="B5" s="1">
-        <f>SUM(B2:B4)</f>
-        <v>75750</v>
+        <v>75978</v>
       </c>
       <c r="C5" s="11">
         <f t="shared" si="0"/>
@@ -822,7 +820,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="B2" sqref="B2:B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -846,11 +844,11 @@
         <v>23</v>
       </c>
       <c r="B2" s="4">
-        <v>933</v>
+        <v>25714</v>
       </c>
       <c r="C2" s="12">
         <f>B2/$B$8</f>
-        <v>1.2316831683168317E-2</v>
+        <v>0.3384400747584827</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -858,11 +856,11 @@
         <v>21</v>
       </c>
       <c r="B3" s="4">
-        <v>12672</v>
+        <v>12715</v>
       </c>
       <c r="C3" s="12">
         <f t="shared" ref="C3:C8" si="0">B3/$B$8</f>
-        <v>0.1672871287128713</v>
+        <v>0.16735107531127433</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -870,11 +868,11 @@
         <v>22</v>
       </c>
       <c r="B4" s="4">
-        <v>27728</v>
+        <v>27770</v>
       </c>
       <c r="C4" s="12">
         <f t="shared" si="0"/>
-        <v>0.36604620462046206</v>
+        <v>0.36550053962989287</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -882,11 +880,11 @@
         <v>25</v>
       </c>
       <c r="B5" s="4">
-        <v>428</v>
+        <v>938</v>
       </c>
       <c r="C5" s="12">
         <f t="shared" si="0"/>
-        <v>5.6501650165016503E-3</v>
+        <v>1.2345679012345678E-2</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -894,11 +892,11 @@
         <v>20</v>
       </c>
       <c r="B6" s="4">
-        <v>25581</v>
+        <v>438</v>
       </c>
       <c r="C6" s="12">
         <f t="shared" si="0"/>
-        <v>0.33770297029702973</v>
+        <v>5.7648266603490487E-3</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -906,11 +904,11 @@
         <v>18</v>
       </c>
       <c r="B7" s="4">
-        <v>8408</v>
+        <v>8403</v>
       </c>
       <c r="C7" s="12">
         <f t="shared" si="0"/>
-        <v>0.110996699669967</v>
+        <v>0.11059780462765538</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -918,8 +916,7 @@
         <v>15</v>
       </c>
       <c r="B8" s="1">
-        <f>SUM(B2:B7)</f>
-        <v>75750</v>
+        <v>75978</v>
       </c>
       <c r="C8" s="11">
         <f t="shared" si="0"/>
@@ -936,7 +933,7 @@
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="B2" sqref="B2:B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1116,7 +1113,6 @@
         <v>24</v>
       </c>
       <c r="B15" s="8">
-        <f>SUM(B2:B14)</f>
         <v>44134</v>
       </c>
       <c r="C15" s="15">
@@ -1134,7 +1130,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B4"/>
+      <selection activeCell="B2" sqref="B2:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1191,7 +1187,6 @@
         <v>15</v>
       </c>
       <c r="B5" s="1">
-        <f>SUM(B2:B4)</f>
         <v>44134</v>
       </c>
       <c r="C5" s="16">
@@ -1208,8 +1203,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5030A505-56A3-4E91-AD33-A7ADAD482E9C}">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A28" sqref="A28:B34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/CaseAndFatalityDemographicsData/2021-03-12.xlsx
+++ b/CaseAndFatalityDemographicsData/2021-03-12.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ehuebner963\Desktop\WIRID Box\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\CHS-AAU\Epi\Covid\For Ektron\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{87D74E45-E4A5-4A71-A7AA-B1960A374A6C}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{20664F74-EF72-4FE9-B72C-E8C562FBECD2}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" tabRatio="806" activeTab="5" xr2:uid="{A6E7ED99-6879-4496-BF23-313330724014}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12228" tabRatio="806" firstSheet="2" activeTab="5" xr2:uid="{A6E7ED99-6879-4496-BF23-313330724014}"/>
   </bookViews>
   <sheets>
     <sheet name="Cases by Age Group" sheetId="3" r:id="rId1"/>
@@ -189,7 +189,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -209,12 +209,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="9" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -230,6 +224,9 @@
     </xf>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -552,12 +549,12 @@
       <selection activeCell="B2" sqref="B2:B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.7" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="13.796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>27</v>
       </c>
@@ -568,170 +565,170 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="4">
         <v>268</v>
       </c>
-      <c r="C2" s="12">
+      <c r="C2" s="10">
         <f>B2/$B$15</f>
         <v>3.5273368606701938E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="4">
         <v>1273</v>
       </c>
-      <c r="C3" s="12">
+      <c r="C3" s="10">
         <f t="shared" ref="C3:C15" si="0">B3/$B$15</f>
         <v>1.6754850088183421E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="4">
         <v>3465</v>
       </c>
-      <c r="C4" s="12">
+      <c r="C4" s="10">
         <f t="shared" si="0"/>
         <v>4.5605306799336651E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="4">
         <v>15149</v>
       </c>
-      <c r="C5" s="12">
+      <c r="C5" s="10">
         <f t="shared" si="0"/>
         <v>0.1993866645607939</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="4">
         <v>16759</v>
       </c>
-      <c r="C6" s="12">
+      <c r="C6" s="10">
         <f t="shared" si="0"/>
         <v>0.22057700913422307</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="4">
         <v>14665</v>
       </c>
-      <c r="C7" s="12">
+      <c r="C7" s="10">
         <f t="shared" si="0"/>
         <v>0.19301639948406119</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B8" s="4">
         <v>12304</v>
       </c>
-      <c r="C8" s="12">
+      <c r="C8" s="10">
         <f t="shared" si="0"/>
         <v>0.16194161467793308</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A9" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B9" s="4">
         <v>4430</v>
       </c>
-      <c r="C9" s="12">
+      <c r="C9" s="10">
         <f t="shared" si="0"/>
         <v>5.8306351838690144E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A10" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B10" s="4">
         <v>2972</v>
       </c>
-      <c r="C10" s="12">
+      <c r="C10" s="10">
         <f t="shared" si="0"/>
         <v>3.9116586380267972E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A11" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B11" s="4">
         <v>1757</v>
       </c>
-      <c r="C11" s="12">
+      <c r="C11" s="10">
         <f t="shared" si="0"/>
         <v>2.3125115164916159E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A12" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B12" s="4">
         <v>1147</v>
       </c>
-      <c r="C12" s="12">
+      <c r="C12" s="10">
         <f t="shared" si="0"/>
         <v>1.509647529548027E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A13" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B13" s="4">
         <v>1776</v>
       </c>
-      <c r="C13" s="12">
+      <c r="C13" s="10">
         <f t="shared" si="0"/>
         <v>2.3375187554292031E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A14" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B14" s="4">
         <v>13</v>
       </c>
-      <c r="C14" s="12">
+      <c r="C14" s="10">
         <f t="shared" si="0"/>
         <v>1.7110216115191239E-4</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B15" s="1">
         <v>75978</v>
       </c>
-      <c r="C15" s="11">
+      <c r="C15" s="9">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -749,9 +746,9 @@
       <selection activeCell="B2" sqref="B2:B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.7" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -762,50 +759,50 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B2" s="4">
         <v>25441</v>
       </c>
-      <c r="C2" s="12">
+      <c r="C2" s="10">
         <f>B2/$B$5</f>
         <v>0.33484692937429256</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B3" s="4">
         <v>49630</v>
       </c>
-      <c r="C3" s="12">
+      <c r="C3" s="10">
         <f t="shared" ref="C3:C5" si="0">B3/$B$5</f>
         <v>0.65321540445918558</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B4" s="4">
         <v>907</v>
       </c>
-      <c r="C4" s="12">
+      <c r="C4" s="10">
         <f t="shared" si="0"/>
         <v>1.1937666166521888E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B5" s="1">
         <v>75978</v>
       </c>
-      <c r="C5" s="11">
+      <c r="C5" s="9">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -820,15 +817,15 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B8"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.7" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="13.8984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.87890625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>19</v>
       </c>
@@ -839,86 +836,86 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>23</v>
       </c>
       <c r="B2" s="4">
         <v>25714</v>
       </c>
-      <c r="C2" s="12">
+      <c r="C2" s="10">
         <f>B2/$B$8</f>
         <v>0.3384400747584827</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B3" s="4">
         <v>12715</v>
       </c>
-      <c r="C3" s="12">
+      <c r="C3" s="10">
         <f t="shared" ref="C3:C8" si="0">B3/$B$8</f>
         <v>0.16735107531127433</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B4" s="4">
         <v>27770</v>
       </c>
-      <c r="C4" s="12">
+      <c r="C4" s="10">
         <f t="shared" si="0"/>
         <v>0.36550053962989287</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5" s="3" t="s">
         <v>25</v>
       </c>
       <c r="B5" s="4">
         <v>938</v>
       </c>
-      <c r="C5" s="12">
+      <c r="C5" s="10">
         <f t="shared" si="0"/>
         <v>1.2345679012345678E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6" s="3" t="s">
         <v>20</v>
       </c>
       <c r="B6" s="4">
         <v>438</v>
       </c>
-      <c r="C6" s="12">
+      <c r="C6" s="10">
         <f t="shared" si="0"/>
         <v>5.7648266603490487E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B7" s="4">
         <v>8403</v>
       </c>
-      <c r="C7" s="12">
+      <c r="C7" s="10">
         <f t="shared" si="0"/>
         <v>0.11059780462765538</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B8" s="1">
         <v>75978</v>
       </c>
-      <c r="C8" s="11">
+      <c r="C8" s="9">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -933,15 +930,15 @@
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B15"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.7" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="13.796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="5" t="s">
         <v>27</v>
       </c>
@@ -952,170 +949,171 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="7">
         <v>6</v>
       </c>
-      <c r="C2" s="12">
+      <c r="C2" s="10">
         <f>B2/$B$15</f>
-        <v>1.3594960801196357E-4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+        <v>1.3239772275916854E-4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="7">
         <v>10</v>
       </c>
-      <c r="C3" s="12">
+      <c r="C3" s="10">
         <f t="shared" ref="C3:C15" si="0">B3/$B$15</f>
-        <v>2.2658268001993928E-4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+        <v>2.2066287126528089E-4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="7">
         <v>31</v>
       </c>
-      <c r="C4" s="12">
-        <f t="shared" si="0"/>
-        <v>7.0240630806181177E-4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C4" s="10">
+        <f t="shared" si="0"/>
+        <v>6.840549009223708E-4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="4">
-        <v>216</v>
-      </c>
-      <c r="C5" s="12">
-        <f t="shared" si="0"/>
-        <v>4.8941858884306881E-3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B5" s="7">
+        <v>222</v>
+      </c>
+      <c r="C5" s="10">
+        <f t="shared" si="0"/>
+        <v>4.8987157420892361E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="4">
-        <v>700</v>
-      </c>
-      <c r="C6" s="12">
-        <f t="shared" si="0"/>
-        <v>1.586078760139575E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B6" s="7">
+        <v>724</v>
+      </c>
+      <c r="C6" s="10">
+        <f t="shared" si="0"/>
+        <v>1.5975991879606338E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="4">
-        <v>2075</v>
-      </c>
-      <c r="C7" s="12">
-        <f t="shared" si="0"/>
-        <v>4.7015906104137396E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B7" s="7">
+        <v>2120</v>
+      </c>
+      <c r="C7" s="10">
+        <f t="shared" si="0"/>
+        <v>4.6780528708239552E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="4">
-        <v>4796</v>
-      </c>
-      <c r="C8" s="12">
-        <f t="shared" si="0"/>
-        <v>0.10866905333756288</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B8" s="7">
+        <v>4951</v>
+      </c>
+      <c r="C8" s="10">
+        <f t="shared" si="0"/>
+        <v>0.10925018756344057</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="4">
-        <v>4042</v>
-      </c>
-      <c r="C9" s="12">
-        <f t="shared" si="0"/>
-        <v>9.158471926405945E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B9" s="7">
+        <v>4173</v>
+      </c>
+      <c r="C9" s="10">
+        <f t="shared" si="0"/>
+        <v>9.2082616179001722E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A10" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="4">
-        <v>5238</v>
-      </c>
-      <c r="C10" s="12">
-        <f t="shared" si="0"/>
-        <v>0.1186840077944442</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B10" s="7">
+        <v>5415</v>
+      </c>
+      <c r="C10" s="10">
+        <f t="shared" si="0"/>
+        <v>0.11948894479014961</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A11" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="4">
-        <v>5891</v>
-      </c>
-      <c r="C11" s="12">
-        <f t="shared" si="0"/>
-        <v>0.13347985679974622</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B11" s="7">
+        <v>6058</v>
+      </c>
+      <c r="C11" s="10">
+        <f t="shared" si="0"/>
+        <v>0.13367756741250716</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A12" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="4">
-        <v>5913</v>
-      </c>
-      <c r="C12" s="12">
-        <f t="shared" si="0"/>
-        <v>0.13397833869579009</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B12" s="7">
+        <v>6071</v>
+      </c>
+      <c r="C12" s="10">
+        <f t="shared" si="0"/>
+        <v>0.13396442914515203</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A13" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="4">
-        <v>15216</v>
-      </c>
-      <c r="C13" s="12">
-        <f t="shared" si="0"/>
-        <v>0.34476820591833962</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B13" s="7">
+        <v>15537</v>
+      </c>
+      <c r="C13" s="10">
+        <f t="shared" si="0"/>
+        <v>0.34284390308486695</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A14" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B14" s="4">
         <v>0</v>
       </c>
-      <c r="C14" s="12">
+      <c r="C14" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A15" s="5" t="s">
         <v>24</v>
       </c>
       <c r="B15" s="8">
-        <v>44134</v>
-      </c>
-      <c r="C15" s="15">
+        <f>SUM(B2:B14)</f>
+        <v>45318</v>
+      </c>
+      <c r="C15" s="13">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -1129,13 +1127,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C92BAF56-3443-4211-AC39-FD818DE6BEEB}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B5"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.7" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="6" t="s">
         <v>2</v>
       </c>
@@ -1146,50 +1142,51 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B2" s="7">
-        <v>18487</v>
-      </c>
-      <c r="C2" s="12">
+        <v>18963</v>
+      </c>
+      <c r="C2" s="10">
         <f>B2/$B$5</f>
-        <v>0.41888340055286172</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.41844300278035218</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B3" s="7">
-        <v>25646</v>
-      </c>
-      <c r="C3" s="12">
+        <v>26354</v>
+      </c>
+      <c r="C3" s="10">
         <f t="shared" ref="C3:C5" si="0">B3/$B$5</f>
-        <v>0.58109394117913626</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.58153493093252129</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B4" s="4">
         <v>1</v>
       </c>
-      <c r="C4" s="12">
-        <f t="shared" si="0"/>
-        <v>2.2658268001993928E-5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C4" s="10">
+        <f t="shared" si="0"/>
+        <v>2.2066287126528091E-5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B5" s="1">
-        <v>44134</v>
-      </c>
-      <c r="C5" s="16">
+        <f>SUM(B2:B4)</f>
+        <v>45318</v>
+      </c>
+      <c r="C5" s="14">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -1203,16 +1200,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5030A505-56A3-4E91-AD33-A7ADAD482E9C}">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.7" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="13.8984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.87890625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>19</v>
       </c>
@@ -1223,87 +1218,87 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="13" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A2" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="10">
-        <v>898</v>
-      </c>
-      <c r="C2" s="12">
+      <c r="B2" s="15">
+        <v>936</v>
+      </c>
+      <c r="C2" s="10">
         <f>B2/$B$8</f>
-        <v>2.0347124665790545E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="13" t="s">
+        <v>2.0654044750430294E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A3" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="9">
-        <v>4252</v>
-      </c>
-      <c r="C3" s="12">
+      <c r="B3" s="15">
+        <v>4388</v>
+      </c>
+      <c r="C3" s="10">
         <f t="shared" ref="C3:C8" si="0">B3/$B$8</f>
-        <v>9.6342955544478179E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="13" t="s">
+        <v>9.6826867911205261E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A4" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="10">
-        <v>20453</v>
-      </c>
-      <c r="C4" s="12">
-        <f t="shared" si="0"/>
-        <v>0.46342955544478182</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="13" t="s">
+      <c r="B4" s="15">
+        <v>21001</v>
+      </c>
+      <c r="C4" s="10">
+        <f t="shared" si="0"/>
+        <v>0.46341409594421645</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A5" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="10">
-        <v>231</v>
-      </c>
-      <c r="C5" s="12">
-        <f t="shared" si="0"/>
-        <v>5.2340599084605977E-3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="14" t="s">
+      <c r="B5" s="15">
+        <v>242</v>
+      </c>
+      <c r="C5" s="10">
+        <f t="shared" si="0"/>
+        <v>5.3400414846197976E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A6" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="4">
-        <v>18276</v>
-      </c>
-      <c r="C6" s="12">
-        <f t="shared" si="0"/>
-        <v>0.41410250600444104</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="13" t="s">
+      <c r="B6" s="15">
+        <v>18727</v>
+      </c>
+      <c r="C6" s="10">
+        <f t="shared" si="0"/>
+        <v>0.41323535901849157</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A7" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="10">
+      <c r="B7" s="15">
         <v>24</v>
       </c>
-      <c r="C7" s="12">
-        <f t="shared" si="0"/>
-        <v>5.4379843204785427E-4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C7" s="10">
+        <f t="shared" si="0"/>
+        <v>5.2959089103667416E-4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B8" s="2">
         <f>SUM(B2:B7)</f>
-        <v>44134</v>
-      </c>
-      <c r="C8" s="16">
+        <v>45318</v>
+      </c>
+      <c r="C8" s="14">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
